--- a/Documentação/ATA/ATA-09-10.xlsx
+++ b/Documentação/ATA/ATA-09-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Documentos\grupo-05-adsa-20201\Documentação\ATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F20D5-86CC-4E67-86F3-8DF5C9AE48BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE79A4-80BF-4E4D-93B5-AC2E91EEA9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{16432F68-735D-4949-B8B5-CA40982BF5BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t xml:space="preserve">ATA DE REUNIÃO </t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Guilherme, Karina, Isabella</t>
+  </si>
+  <si>
+    <t>Configurar a API nos computadores do restanto do grupo</t>
   </si>
 </sst>
 </file>
@@ -547,28 +550,45 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,62 +597,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A8763-DEA1-422F-86C4-639973A5AD32}">
   <dimension ref="F2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,30 +1027,30 @@
   <sheetData>
     <row r="2" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="6:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1073,7 +1076,7 @@
       <c r="H7" s="17">
         <v>44113</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="18">
         <v>0.6875</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -1082,10 +1085,10 @@
     </row>
     <row r="8" spans="6:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="33"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="6:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="11" t="s">
@@ -1152,10 +1155,10 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="6:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="33"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="6:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,202 +1172,224 @@
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="40" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="41"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="40" t="s">
+      <c r="H19" s="40"/>
+      <c r="I19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="40" t="s">
+      <c r="H20" s="40"/>
+      <c r="I20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="40" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="18"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="30" t="s">
+      <c r="H27" s="37"/>
+      <c r="I27" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="18"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="G28" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="18"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="18"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="18"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="18"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="18"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G3:J5"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G8:J8"/>
@@ -1381,29 +1406,11 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G3:J5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
